--- a/benchmarks/source/shaotuanb/telecomm/FFT/loop_data/graph.xlsx
+++ b/benchmarks/source/shaotuanb/telecomm/FFT/loop_data/graph.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Transitions</t>
   </si>
@@ -38,10 +38,19 @@
     <t>Average Power</t>
   </si>
   <si>
-    <t>Instruction Simulation Rate</t>
+    <t>loop count</t>
   </si>
   <si>
-    <t>loop count</t>
+    <t>2 mW infer</t>
+  </si>
+  <si>
+    <t>accelerometer : 1.35 mW</t>
+  </si>
+  <si>
+    <t>gyro alone : 9.6 mW</t>
+  </si>
+  <si>
+    <t>Dynamic Instruction Counts</t>
   </si>
 </sst>
 </file>
@@ -241,11 +250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="960894400"/>
-        <c:axId val="960892080"/>
+        <c:axId val="1057685040"/>
+        <c:axId val="962340688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="960894400"/>
+        <c:axId val="1057685040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -302,12 +311,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="960892080"/>
+        <c:crossAx val="962340688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="960892080"/>
+        <c:axId val="962340688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="960894400"/>
+        <c:crossAx val="1057685040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -560,11 +569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1020274144"/>
-        <c:axId val="1020272368"/>
+        <c:axId val="561970256"/>
+        <c:axId val="829285696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1020274144"/>
+        <c:axId val="561970256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,12 +629,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020272368"/>
+        <c:crossAx val="829285696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1020272368"/>
+        <c:axId val="829285696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -681,7 +690,324 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1020274144"/>
+        <c:crossAx val="561970256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Instruction Counts</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6.54002E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3164428E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9794861E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6416972E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3043531E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1018365936"/>
+        <c:axId val="1018363616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1018365936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018363616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1018363616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1018365936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -810,6 +1136,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1327,6 +1693,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1899,6 +2781,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2170,17 +3082,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2192,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2208,6 +3124,9 @@
       <c r="D2" s="1">
         <v>2.078182E-3</v>
       </c>
+      <c r="E2">
+        <v>6540020</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2221,6 +3140,9 @@
       </c>
       <c r="D3" s="1">
         <v>2.0780270000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>13164428</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2236,6 +3158,9 @@
       <c r="D4" s="1">
         <v>2.0779890000000001E-3</v>
       </c>
+      <c r="E4">
+        <v>19794861</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2249,6 +3174,9 @@
       </c>
       <c r="D5" s="1">
         <v>2.0780099999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>26416972</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2264,6 +3192,24 @@
       <c r="D6" s="1">
         <v>2.078005E-3</v>
       </c>
+      <c r="E6">
+        <v>33043531</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
